--- a/raw/1948election.xlsx
+++ b/raw/1948election.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/admin/Dropbox/MyData/USvoting/historical voting/1920to1974/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{596B79A2-5AFC-E849-9847-3F10F7F88A53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C6F76FA-FA3C-DC47-9D2F-75055C04217E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="15460" windowHeight="16040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6544" uniqueCount="1992">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6542" uniqueCount="1992">
   <si>
     <t>State</t>
   </si>
@@ -6493,7 +6493,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -6800,8 +6800,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H1258"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1249" zoomScale="211" workbookViewId="0">
-      <selection activeCell="C1256" sqref="C1256:C1258"/>
+    <sheetView tabSelected="1" topLeftCell="A595" zoomScale="211" workbookViewId="0">
+      <selection activeCell="D609" sqref="D609"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -20521,8 +20521,8 @@
       <c r="C607" t="s">
         <v>14</v>
       </c>
-      <c r="D607" t="s">
-        <v>15</v>
+      <c r="D607">
+        <v>2</v>
       </c>
       <c r="E607" t="s">
         <v>1775</v>
@@ -20544,8 +20544,8 @@
       <c r="C608" t="s">
         <v>14</v>
       </c>
-      <c r="D608" t="s">
-        <v>15</v>
+      <c r="D608">
+        <v>2</v>
       </c>
       <c r="E608" t="s">
         <v>819</v>
